--- a/ABHEES_INTERIOR report.xlsx
+++ b/ABHEES_INTERIOR report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\OneDrive\Desktop\ABHEES_INTERIOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD7DFCA-C4EF-4A61-A2B2-15CCDE37A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DC3529-A661-4978-A8DD-3EDBDE937370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89709B09-CAD6-4D9A-A241-3A299E91FDD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>Module Name</t>
   </si>
@@ -234,7 +234,25 @@
     <t>Analyze images using performance tools; observe large file sizes.</t>
   </si>
   <si>
-    <t>Spelling issue in the banner text</t>
+    <t>Color Contrast</t>
+  </si>
+  <si>
+    <t>Some text lacks sufficient contrast against background.</t>
+  </si>
+  <si>
+    <t>Use accessibility tools to check color contrast ratios.</t>
+  </si>
+  <si>
+    <t>Page Layout</t>
+  </si>
+  <si>
+    <t>Extra white space at bottom of some pages</t>
+  </si>
+  <si>
+    <t>Scroll down and observe extra spacing</t>
+  </si>
+  <si>
+    <t>Grammer issue in the banner text</t>
   </si>
 </sst>
 </file>
@@ -302,18 +320,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -323,25 +347,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +744,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,396 +760,468 @@
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6">
         <v>45792</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6">
         <v>45792</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6">
         <v>45792</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6">
         <v>45792</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6">
         <v>45792</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6">
         <v>45792</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6">
         <v>45792</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6">
         <v>45792</v>
       </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
         <v>45792</v>
       </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="I10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6">
         <v>45792</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="I11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6">
         <v>45792</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="I12" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45792</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45792</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10">
+        <v>45791</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10">
+        <v>45791</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
